--- a/src/test/java/com/ccs/testData/LoginData.xlsx
+++ b/src/test/java/com/ccs/testData/LoginData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -22,22 +22,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr261425</t>
+    <t>mngr265461</t>
   </si>
   <si>
-    <t>gEraqur</t>
-  </si>
-  <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
+    <t xml:space="preserve">Esasyvy </t>
   </si>
 </sst>
 </file>
@@ -94,11 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,26 +419,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
